--- a/df_cleaned.xlsx
+++ b/df_cleaned.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smarnita/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smarnita/Documents/flushPackagingProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C660723-D2DD-AC4D-893B-408ACA3E79D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6319A31-EA4C-684E-800F-2F2DBDA361A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1647,7 +1647,7 @@
   <dimension ref="A1:AM165"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/df_cleaned.xlsx
+++ b/df_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smarnita/Documents/flushPackagingProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6319A31-EA4C-684E-800F-2F2DBDA361A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ABFF5D-1169-484A-B251-4CF5771580F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1647,7 +1647,7 @@
   <dimension ref="A1:AM165"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
